--- a/Firmware/CSL Intelligent Fixed Readers Release Notes.xlsx
+++ b/Firmware/CSL Intelligent Fixed Readers Release Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="600">
   <si>
     <t>Version</t>
   </si>
@@ -1566,342 +1566,986 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>For the SD Card Image dated 2020 December 15 (only for this image), the usbcdisk_start script is incorrect.  This patch overwrites it with the correct script</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Implement “OR” operation for the One Shot Pulse action of Resultant Action. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Added Batch Alert Time Cycle for Resultant Action Mode Batch Alert to Server. Tag data will be sent to the server at the end of each time cycle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Added readTag, writeTag, addTagFilter, modTagFilter, delTagFilter and listTagFilter HTTP APIs.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Added RSSI in the XML response of the Fudan DT160 HTTP API calls.
+2. When doing “Out of Range Only” logging and no out of range data is recorded, shows “No out of limit temperature data” instead of shows “Error”.
+3. Added “Session #”, “Target”, “Query Algorithm” and “Population” options in Select Tag page.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To enable remote server authentication and security features of Web App V1.4.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Added remote server certificate, authentication and proxy server settings for HTTP cloud server.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Skip getting the MAC address of the incoming TPC connection to prevent closing the socket when the MAC address cannot be retrieved.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Added Network/TCP Listening Port Configuration.
+2. Added Alert on TCP Listening Port action mode in Resultant Action.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fixed the bug of when sending out tag data in CSV format, the last character is truncated.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Added End Of Line option in Data Format. This option is only available for CSV format.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is release notes for the CSL R2000 Based Intelligent Reader Family, including:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fixed the bug of JSON format not display on Data Format page.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed the problem of selecting China as the Regulatory Region would cause MAC Error 302.
+2. Changed frequencies of Taiwan.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fixed the problem of selecting China as the Regulatory Region would cause MAC Error 302.
+2. Changed frequencies of Taiwan.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Added Output Port notification type, MAC Error Code and Antenna Port items in Reader Error Notification.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Reset reader error notification output when receives Antenna-Cycle-End packet.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Do not reset reader error notification output when reconfigured error antenna port exist.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>When disconnecting Ethernet session, reset Daemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date (Month/Date/Year)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release Notes by Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new CSL Unified API Library V1.0.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNI GPIO Library   (works together with Web Application to interface with NXP IC (Host IC))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand ID Functionality Selectivity only on CS463-7 NBI and BI models, all other models open and available</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add better description on RFID Firmware V2.6.43 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Added DIGEST authentication to Cloud Server.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. New : Added wildcard * option in tag group (e.g. A04* = all tags prefix A04)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Change UI : Change "True/False" to "Enable/Disable" in List event page 
+2. Change UI : Added warning message in Custom Embedded RFID Application page
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add web application V1.4.20 and V1.4.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop BLE advertising when program exited.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Bluetooth Daemon V1.0.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix : Fix java CPU usage too high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change : set delay time to 100ms for java CPU usage too high problems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix : Missing first "Resultant Action" when enabled wildcard * in tag group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fix : Bluetooth not working when start up without WIFI for some units
+2. Change : Change UI for upgrade failure
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add Web application V1.4.22 to 25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. new : accept high level tag packet (0x8005).
+2. change version number to 1.1.12
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>add JNI RFID library V1.1.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug fix for 16 port CS468XJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Improve : cancel mac error 336 alert message in web page when received tag again.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Improve : added 336 error count in alert message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add C004 command.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add LLRP library V1.0.12, add Web application V1.4.26 and 27 and CS108 Bluetooth Library V1.0.5 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Support new model -2RWS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. fix : can not set Vietnam frequency in some model.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. new : inventory and mac error LED control for some model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change power level index step from 0.25dBm to 0.1dBm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update daemon latest libraries and web application and JNI as well.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web App:                V1.4.28
+RFID JNI:                 V1.1.14
+GPIO JNI:                 V1.0
+CSL Unified API:       V1.0.13
+MACH1 API:              V1.0.5
+LLRP API:                 V1.0.13
+Bluetooth API:           V1.0.5
+Patches:                   Up to 8, No Need of Patch 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 November 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set inventory round to 0x0fffffff
+2. Set diagnostics info to 0x212 to fix 2 seconds stop inventory problem
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. disabled syslog output</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed up some operations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. add ETSI UPPER BANK in -2RW
+2. fix 1.4.46 can not select frequency in -2RW
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update JNI RFID library, JNI GPIO library, Web Application versions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified Timing to Speed Up operations (match with Web App V1.4.47 or later, and JNI GPIO V1.1 or later), MUST BE INSTALLED in following sequence:
+1. JNI GPIO Library V1.1
+2. JNI RFID Library V1.1.20
+3. After #1 and #2 above then install Web App V1.4.47 or later</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated Timing (match with Web App V1.4.47 or later, and JNI RFID V1.1.20 or later) and MUST BE INSTALLED in following sequence:
+1. JNI GPIO Library V1.1
+2. JNI RFID Library V1.1.20
+3. After #1 and #2 above then install Web App V1.4.47 or later</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Show message "Port disabled because of Antenna Port Error" at bottom side in operation files page when event running and port error.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change Taiwan frequency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OEM capable version</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. support OEM version -2RW with fixed channel "JP" and "ETSIUPPERBAND".</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. support OEM version -2RW with fixed channel "JP" and "ETSIUPPERBAND".
+2. Change the name of "WebApplication Version control"
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support OEM version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MUST ALSO INSTALL 2 new JNI Libraries FIRST AND MUST BE IN THE FOLLOWING SEQUENCE:
+1. JNI GPIO Library V1.1
+2. JNI RFID Library V1.1.20
+3. After #1 and #2 above then install Web App V1.4.47 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified SD drivers
+Contains factory default reset partition that contains rootfs, kernel and dtb. 
+Contains special rootfs partition for factory default reset operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix retry error when "Retry Error Antenna Port Time" = 0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix some message not display after Restart Event in Capture tags raw page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change "Restart Event" to "Clear Error Message &amp; Restart Event" in Capture tags raw page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix mac error 0x14, the error is start inventory with no antenna available</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. change name "TCP_RESPONSE" to " TCP_SINGLETAGPERPACKET_SERVERRESPONSE".
+2. Add Repose OK Terminator in Hex field in Cloud server, the value must be even length (e.g. 0A0A)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix multi tags send out in "TCP_RESPONSE" mode.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix exception error on "modify cloud server".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Add "TCP_RESPONSE" option in cloud server page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Fix tag fields option not display in Data Format</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fix Data Format may disappear after reboot </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add separator options and new linefeed LFLF in CVS format
+2. Add Header and EPC Hex portions in tag data format (EPC Hex portions : Fixed tag length and minus sign will delete the text e.g. :"++++----++++----++++" output 12 chats EPC data)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Changed Taiwan frequency
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Changed the format of custom embedded RFID application command  comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Change custom embedded RFID application command  comment to
+"Please choose config file that corresponds to Reader Model &amp; Region version, for example:
+configCS463_FCC.txt for CS463-2
+configCS203X_ETSI.txt for CS203X-1
+or you can write your own App for specific reader model &amp; region using example.c as reference"
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fix CW not work
+2. CS203X default antenna 4 in Select tag page
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Enhanced speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. CVS format, each line has only one tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update JNI RFID library, JNI GPIO library, Web Application versions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Restore to display Serial Number in OEM model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>add -2ZA South Africa Upper Band Hopping 200 KHz channel separation 915.6 - 918.8 MHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add -2ZA South Africa Upper Band Hopping 200 KHz channel separation 915.6 - 918.8 MHz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 July 26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web App:                V1.4.54
+RFID JNI:                 V1.1.24
+GPIO JNI:                 V1.1
+CSL Unified API:       V1.0.13
+MACH1 API:              V1.0.5
+LLRP API:                 V1.0.13
+Bluetooth API:           V1.0.5
+Patches:                   Up to 8, No Need of Patch 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1) Reduced size to 14.3 Gbyte to fit into smaller SD Card
 2) HostID bug fixed and become standard "imx6dlsabresd"
 3) Embedded Application not the latest version</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>For the SD Card Image dated 2020 December 15 (only for this image), the usbcdisk_start script is incorrect.  This patch overwrites it with the correct script</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Implement “OR” operation for the One Shot Pulse action of Resultant Action. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Added Batch Alert Time Cycle for Resultant Action Mode Batch Alert to Server. Tag data will be sent to the server at the end of each time cycle.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Added readTag, writeTag, addTagFilter, modTagFilter, delTagFilter and listTagFilter HTTP APIs.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Added RSSI in the XML response of the Fudan DT160 HTTP API calls.
-2. When doing “Out of Range Only” logging and no out of range data is recorded, shows “No out of limit temperature data” instead of shows “Error”.
-3. Added “Session #”, “Target”, “Query Algorithm” and “Population” options in Select Tag page.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To enable remote server authentication and security features of Web App V1.4.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Added remote server certificate, authentication and proxy server settings for HTTP cloud server.
+    <t>Embedded Application not the latest version</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Derived from 2021 August 24 Card
+Add -2ZA model for South Africa Upper Band Hopping 915.6 - 918.8 MHz, 200 KHz channel separation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bug: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Control Serial not working, only good for CS203X</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update JNI RFID library, Web Application version, SD Card Image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide CS461_TCP_Format option if output to debug port in Resultant Action page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix no disable the "Tag Duplicate Elimination Window" in modify Event if the Resultant Action is no duplicate elimination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed version number not match.
+2. Tested : Can be upgrade web application while the event is running, and the event will run automatically after reboot.
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>V1.1.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Skip getting the MAC address of the incoming TPC connection to prevent closing the socket when the MAC address cannot be retrieved.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Added Network/TCP Listening Port Configuration.
-2. Added Alert on TCP Listening Port action mode in Resultant Action.
+    <t>V1.4.64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed : if "Action mode" changed, "DataFormat ID" will change to default.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added options of send tags data to debug serial port in Resultant Action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use GPIO Library 1.0 to fix old library can not bootup problem. (no need upgrade GPIO library to 1.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI change in page "Access mode" and "Add/Modify profiles"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. UI change in page "Access mode"
+2. Set default antenna 4 when in CS203X
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>V1.4.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Fixed the bug of when sending out tag data in CSV format, the last character is truncated.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Added End Of Line option in Data Format. This option is only available for CSV format.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is release notes for the CSL R2000 Based Intelligent Reader Family, including:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Fixed the bug of JSON format not display on Data Format page.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Fixed the problem of selecting China as the Regulatory Region would cause MAC Error 302.
-2. Changed frequencies of Taiwan.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.1.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.1.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.1.11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Fixed the problem of selecting China as the Regulatory Region would cause MAC Error 302.
-2. Changed frequencies of Taiwan.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Added Output Port notification type, MAC Error Code and Antenna Port items in Reader Error Notification.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Reset reader error notification output when receives Antenna-Cycle-End packet.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Do not reset reader error notification output when reconfigured error antenna port exist.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>When disconnecting Ethernet session, reset Daemon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modification</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date (Month/Date/Year)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release Notes by Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>new CSL Unified API Library V1.0.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNI GPIO Library   (works together with Web Application to interface with NXP IC (Host IC))</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brand ID Functionality Selectivity only on CS463-7 NBI and BI models, all other models open and available</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add better description on RFID Firmware V2.6.43 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Added DIGEST authentication to Cloud Server.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. New : Added wildcard * option in tag group (e.g. A04* = all tags prefix A04)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Change UI : Change "True/False" to "Enable/Disable" in List event page 
-2. Change UI : Added warning message in Custom Embedded RFID Application page
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add web application V1.4.20 and V1.4.21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stop BLE advertising when program exited.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>new Bluetooth Daemon V1.0.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Fix : Fix java CPU usage too high</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Change : set delay time to 100ms for java CPU usage too high problems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Fix : Missing first "Resultant Action" when enabled wildcard * in tag group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Fix : Bluetooth not working when start up without WIFI for some units
-2. Change : Change UI for upgrade failure
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add Web application V1.4.22 to 25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. new : accept high level tag packet (0x8005).
-2. change version number to 1.1.12
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.1.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>add JNI RFID library V1.1.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug fix for 16 port CS468XJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.4.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Improve : cancel mac error 336 alert message in web page when received tag again.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Improve : added 336 error count in alert message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add C004 command.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add LLRP library V1.0.12, add Web application V1.4.26 and 27 and CS108 Bluetooth Library V1.0.5 </t>
+    <t>V1.4.60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix " Read/Write Access Password : " write result show on wrong position.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI minor changes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI change for SSI (inclued "Event change"),  All changes will appear in SSI and CSL versions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some customized changes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add Frequency Set "SA Fixed"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix access password not work</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Frequency Set "SA Fixed"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add RSSI filtering function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.45</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.46</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add 2ms cw off delay between port switching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix M775 authenticate command</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update JNI RFID library, Web Application version, RFID firmware version</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +2553,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2064,6 +2708,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2137,7 +2794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2320,6 +2977,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2330,6 +2999,12 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2670,7 +3345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2695,7 +3370,7 @@
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -2993,7 +3668,7 @@
     </row>
     <row r="18" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3380,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3417,78 +4092,89 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B4" s="6">
-        <v>44763</v>
+        <v>44865</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>449</v>
       </c>
       <c r="B5" s="6">
-        <v>44146</v>
+        <v>44763</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6">
-        <v>44120</v>
+        <v>44146</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6">
-        <v>44119</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>147</v>
+        <v>44120</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="6">
-        <v>43686</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>44119</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" s="6">
-        <v>43585</v>
+        <v>43686</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="6">
+        <v>43585</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>43565</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3503,7 +4189,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3537,24 +4223,24 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B4" s="6">
         <v>44722</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5" s="6">
         <v>44578</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3609,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3647,520 +4333,553 @@
     </row>
     <row r="4" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="B4" s="41">
-        <v>44459</v>
+        <v>45272</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>427</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="41">
+        <v>44792</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="41">
+        <v>44615</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="41">
+        <v>44459</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B8" s="41">
         <v>44448</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B9" s="41">
         <v>44165</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C9" s="50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B10" s="41">
         <v>44162</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C10" s="49" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="37">
-        <v>44139</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="37">
-        <v>44092</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="41">
-        <v>44046</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" s="37">
-        <v>44042</v>
+        <v>44139</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12" s="37">
-        <v>44019</v>
+        <v>44092</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="37">
-        <v>43843</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="41">
+        <v>44046</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" s="37">
-        <v>43840</v>
+        <v>44042</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="37">
-        <v>43818</v>
+        <v>44019</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" s="37">
-        <v>43803</v>
+        <v>43843</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>249</v>
+        <v>256</v>
+      </c>
+      <c r="G16" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="37">
-        <v>43801</v>
+        <v>43840</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18" s="37">
-        <v>43738</v>
+        <v>43818</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19" s="37">
-        <v>43713</v>
+        <v>43803</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B20" s="37">
-        <v>43712</v>
+        <v>43801</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21" s="37">
-        <v>43691</v>
+        <v>43738</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="74">
-        <v>43648</v>
+      <c r="A22" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="37">
+        <v>43713</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="37">
+        <v>43712</v>
+      </c>
       <c r="C23" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>226</v>
+        <v>170</v>
+      </c>
+      <c r="B24" s="37">
+        <v>43691</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="37">
-        <v>43557</v>
+      <c r="A25" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="78">
+        <v>43648</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="37">
-        <v>43530</v>
-      </c>
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="37">
-        <v>43479</v>
+        <v>172</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>226</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" s="37">
-        <v>43363</v>
+        <v>43557</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" s="37">
-        <v>43363</v>
+        <v>43530</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B30" s="37">
-        <v>43339</v>
+        <v>43479</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" s="37">
-        <v>43335</v>
+        <v>43363</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" s="37">
-        <v>43304</v>
+        <v>43363</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B33" s="37">
-        <v>43290</v>
+        <v>43339</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" s="37">
-        <v>43220</v>
+        <v>43335</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B35" s="37">
-        <v>43217</v>
+        <v>43304</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B36" s="37">
-        <v>43208</v>
+        <v>43290</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B37" s="37">
-        <v>43206</v>
+        <v>43220</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B38" s="37">
-        <v>43202</v>
+        <v>43217</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B39" s="37">
-        <v>43077</v>
+        <v>43208</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B40" s="37">
-        <v>43054</v>
+        <v>43206</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="37">
+        <v>43202</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="37">
+        <v>43077</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="37">
+        <v>43054</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B44" s="37">
         <v>42968</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="74">
+      <c r="B45" s="78">
         <v>42914</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="24" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="77"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="B44" s="74">
+      <c r="B47" s="78">
         <v>42782</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C47" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="24" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="24" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="37">
-        <v>42752</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="37">
-        <v>42741</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="37">
-        <v>42683</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B49" s="37">
-        <v>42676</v>
+        <v>42752</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="37">
+        <v>42741</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="37">
+        <v>42683</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="37">
+        <v>42676</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B53" s="37">
         <v>42676</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C53" s="43" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4586,10 +5305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4600,112 +5319,188 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
-        <v>44545</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
-        <v>44565</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
-        <v>44575</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
-        <v>44578</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73">
+        <v>45306</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73">
+        <v>45134</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
+        <v>45118</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
-        <v>44585</v>
+        <v>45113</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66">
-        <v>44609</v>
+        <v>45110</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66">
+        <v>44869</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66">
         <v>44763</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="64"/>
+      <c r="B10" s="64" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="66">
+        <v>44609</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="66">
+        <v>44585</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="66">
+        <v>44578</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="66">
+        <v>44575</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="66">
+        <v>44565</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="66">
+        <v>44545</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="64"/>
     </row>
     <row r="18" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="64"/>
     </row>
     <row r="19" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="64"/>
+    </row>
+    <row r="20" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="64"/>
+    </row>
+    <row r="21" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="64"/>
+    </row>
+    <row r="22" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="64"/>
+    </row>
+    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="64"/>
+    </row>
+    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="64"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="64"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="64"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="64"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="64"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="64"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="64"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="64"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4716,10 +5511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4768,51 +5563,83 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="17" t="s">
-        <v>307</v>
+        <v>554</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>297</v>
+        <v>558</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>378</v>
+        <v>557</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="17" t="s">
-        <v>303</v>
+        <v>470</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>297</v>
+        <v>505</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>305</v>
+        <v>559</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>346</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="54" t="s">
-        <v>337</v>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4825,11 +5652,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4837,7 +5664,7 @@
     <col min="1" max="1" width="15.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="29" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="104.7109375" style="30" customWidth="1"/>
     <col min="5" max="6" width="30.42578125" style="28" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="28" customWidth="1"/>
     <col min="8" max="8" width="27" style="28" customWidth="1"/>
@@ -4891,20 +5718,20 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="B4" s="52">
-        <v>44735</v>
+        <v>45299</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>455</v>
+        <v>564</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>409</v>
+        <v>588</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="G4" s="18">
         <v>8</v>
@@ -4913,42 +5740,42 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>452</v>
+        <v>562</v>
       </c>
       <c r="B5" s="52">
-        <v>44734</v>
+        <v>45296</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
-        <v>454</v>
+      <c r="D5" s="79" t="s">
+        <v>563</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>409</v>
+        <v>588</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="G5" s="18">
         <v>8</v>
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>441</v>
+        <v>574</v>
       </c>
       <c r="B6" s="52">
-        <v>44585</v>
+        <v>45296</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>445</v>
+        <v>565</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>409</v>
+        <v>588</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="G6" s="18">
         <v>8</v>
@@ -4957,20 +5784,20 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>440</v>
+        <v>566</v>
       </c>
       <c r="B7" s="52">
-        <v>44580</v>
+        <v>45296</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>444</v>
+        <v>568</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>409</v>
+        <v>588</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="G7" s="18">
         <v>8</v>
@@ -4979,20 +5806,20 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>439</v>
+        <v>567</v>
       </c>
       <c r="B8" s="52">
-        <v>44579</v>
+        <v>45295</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>409</v>
+        <v>588</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="G8" s="18">
         <v>8</v>
@@ -5001,20 +5828,20 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>438</v>
+        <v>571</v>
       </c>
       <c r="B9" s="52">
-        <v>44578</v>
+        <v>45271</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17" t="s">
-        <v>442</v>
+        <v>570</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>409</v>
+        <v>588</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="G9" s="18">
         <v>8</v>
@@ -5023,20 +5850,20 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>431</v>
+        <v>573</v>
       </c>
       <c r="B10" s="52">
-        <v>44568</v>
+        <v>45266</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>409</v>
+        <v>572</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>588</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G10" s="18">
         <v>8</v>
@@ -5045,20 +5872,20 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>430</v>
+        <v>576</v>
       </c>
       <c r="B11" s="52">
-        <v>44518</v>
+        <v>45266</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="54" t="s">
-        <v>433</v>
+      <c r="D11" s="17" t="s">
+        <v>575</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G11" s="18">
         <v>8</v>
@@ -5067,20 +5894,20 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>416</v>
+        <v>578</v>
       </c>
       <c r="B12" s="52">
-        <v>44517</v>
+        <v>45264</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>419</v>
+        <v>577</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G12" s="18">
         <v>8</v>
@@ -5089,20 +5916,20 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="B13" s="52">
-        <v>44517</v>
+        <v>45216</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>418</v>
+        <v>579</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G13" s="18">
         <v>8</v>
@@ -5111,20 +5938,20 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>414</v>
+        <v>582</v>
       </c>
       <c r="B14" s="52">
-        <v>44517</v>
+        <v>45216</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>417</v>
+        <v>581</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G14" s="18">
         <v>8</v>
@@ -5133,20 +5960,20 @@
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>406</v>
+        <v>583</v>
       </c>
       <c r="B15" s="52">
-        <v>44504</v>
+        <v>45203</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="63" t="s">
-        <v>429</v>
+      <c r="D15" s="17" t="s">
+        <v>585</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G15" s="18">
         <v>8</v>
@@ -5155,20 +5982,20 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>405</v>
+        <v>584</v>
       </c>
       <c r="B16" s="52">
-        <v>44501</v>
+        <v>45138</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>409</v>
+        <v>586</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>587</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="G16" s="18">
         <v>8</v>
@@ -5177,1325 +6004,1401 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>404</v>
+        <v>548</v>
       </c>
       <c r="B17" s="52">
-        <v>44497</v>
+        <v>45133</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>407</v>
+        <v>552</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>410</v>
+        <v>549</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>411</v>
+        <v>550</v>
       </c>
       <c r="G17" s="18">
         <v>8</v>
       </c>
       <c r="H17" s="32"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="B18" s="52">
-        <v>44496</v>
+        <v>45107</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>393</v>
+        <v>481</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="G18" s="18">
         <v>8</v>
       </c>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>396</v>
+        <v>541</v>
       </c>
       <c r="B19" s="52">
-        <v>44477</v>
+        <v>45084</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="s">
-        <v>395</v>
+        <v>545</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>393</v>
+        <v>481</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="G19" s="18">
+        <v>8</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="B20" s="52">
-        <v>44477</v>
+        <v>45050</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17" t="s">
-        <v>402</v>
+        <v>547</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>393</v>
+        <v>481</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="G20" s="18">
+        <v>8</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>399</v>
+        <v>539</v>
       </c>
       <c r="B21" s="52">
-        <v>44474</v>
+        <v>45015</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>401</v>
+        <v>542</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>393</v>
+        <v>543</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="G21" s="18"/>
+        <v>544</v>
+      </c>
+      <c r="G21" s="18">
+        <v>8</v>
+      </c>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="B22" s="52">
-        <v>44474</v>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" s="71">
+        <v>45013</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="G22" s="18"/>
+      <c r="D22" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="G22" s="18">
+        <v>8</v>
+      </c>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="51" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>383</v>
+        <v>494</v>
       </c>
       <c r="B23" s="52">
-        <v>44466</v>
+        <v>44987</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>384</v>
+        <v>500</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="G23" s="18">
+        <v>8</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>382</v>
+        <v>493</v>
       </c>
       <c r="B24" s="52">
-        <v>44454</v>
+        <v>44986</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
-        <v>385</v>
+        <v>502</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>283</v>
+        <v>503</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="G24" s="18">
+        <v>8</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>381</v>
+        <v>489</v>
       </c>
       <c r="B25" s="52">
-        <v>44452</v>
+        <v>44970</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="17" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>283</v>
+        <v>491</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="G25" s="18">
+        <v>8</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="B26" s="52">
-        <v>44440</v>
+        <v>44970</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
-        <v>387</v>
+        <v>521</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>283</v>
+        <v>491</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="G26" s="18">
+        <v>8</v>
+      </c>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>326</v>
+        <v>519</v>
       </c>
       <c r="B27" s="52">
-        <v>44438</v>
+        <v>44970</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>327</v>
+        <v>522</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>328</v>
+        <v>491</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8</v>
+      </c>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>324</v>
+        <v>518</v>
       </c>
       <c r="B28" s="52">
-        <v>44435</v>
+        <v>44970</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="17" t="s">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="18">
+        <v>8</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>322</v>
+        <v>517</v>
       </c>
       <c r="B29" s="52">
-        <v>44433</v>
+        <v>44970</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
-        <v>323</v>
+        <v>524</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="18">
+        <v>8</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>308</v>
+        <v>516</v>
       </c>
       <c r="B30" s="52">
-        <v>44420</v>
+        <v>44958</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="55" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="18">
+        <v>8</v>
+      </c>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>317</v>
+        <v>515</v>
       </c>
       <c r="B31" s="52">
-        <v>44420</v>
+        <v>44958</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="17" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="18">
+        <v>8</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>299</v>
+        <v>514</v>
       </c>
       <c r="B32" s="52">
-        <v>44341</v>
+        <v>44958</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17" t="s">
-        <v>300</v>
+        <v>527</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" s="18">
+        <v>8</v>
+      </c>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>282</v>
+        <v>513</v>
       </c>
       <c r="B33" s="52">
-        <v>44323</v>
+        <v>44957</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="17" t="s">
-        <v>290</v>
+        <v>528</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="18">
+        <v>8</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>281</v>
+        <v>512</v>
       </c>
       <c r="B34" s="52">
-        <v>44316</v>
+        <v>44956</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="17" t="s">
-        <v>289</v>
+        <v>529</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="18">
+        <v>8</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>280</v>
+        <v>511</v>
       </c>
       <c r="B35" s="52">
-        <v>44312</v>
+        <v>44956</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="17" t="s">
-        <v>288</v>
+        <v>530</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" s="18">
+        <v>8</v>
+      </c>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" s="51" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>279</v>
+        <v>510</v>
       </c>
       <c r="B36" s="52">
-        <v>44307</v>
+        <v>44956</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" s="18">
+        <v>8</v>
+      </c>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>278</v>
+        <v>509</v>
       </c>
       <c r="B37" s="52">
-        <v>44300</v>
+        <v>44932</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="17" t="s">
-        <v>286</v>
+        <v>532</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" s="18">
+        <v>8</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>277</v>
+        <v>508</v>
       </c>
       <c r="B38" s="52">
-        <v>44298</v>
+        <v>44897</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="17" t="s">
-        <v>285</v>
+        <v>535</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" s="18">
+        <v>8</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" s="51" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>273</v>
+        <v>507</v>
       </c>
       <c r="B39" s="52">
-        <v>44280</v>
+        <v>44897</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="17" t="s">
-        <v>274</v>
+        <v>537</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" s="18">
+        <v>8</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>271</v>
+        <v>506</v>
       </c>
       <c r="B40" s="52">
-        <v>44245</v>
+        <v>44890</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
-        <v>272</v>
+        <v>538</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="G40" s="18">
+        <v>8</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="B41" s="52">
-        <v>44231</v>
+        <v>44854</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="17" t="s">
-        <v>269</v>
+        <v>459</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
-        <v>268</v>
+        <v>460</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="G41" s="18">
+        <v>8</v>
       </c>
       <c r="H41" s="32"/>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="B42" s="52">
-        <v>44230</v>
+        <v>44735</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="17" t="s">
-        <v>275</v>
+        <v>454</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18" t="s">
-        <v>268</v>
+        <v>408</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" s="18">
+        <v>8</v>
       </c>
       <c r="H42" s="32"/>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="B43" s="52">
-        <v>44208</v>
+        <v>44734</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="17" t="s">
-        <v>265</v>
+        <v>453</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="G43" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H43" s="32"/>
     </row>
-    <row r="44" spans="1:8" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>259</v>
+        <v>440</v>
       </c>
       <c r="B44" s="52">
-        <v>44183</v>
+        <v>44585</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="17" t="s">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F44" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="G44" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>258</v>
+        <v>439</v>
       </c>
       <c r="B45" s="52">
-        <v>44182</v>
+        <v>44580</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="G45" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="22">
-        <v>44175</v>
+        <v>438</v>
+      </c>
+      <c r="B46" s="52">
+        <v>44579</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17" t="s">
-        <v>232</v>
+        <v>442</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F46" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="G46" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="22">
-        <v>44162</v>
-      </c>
-      <c r="C47" s="22"/>
+        <v>437</v>
+      </c>
+      <c r="B47" s="52">
+        <v>44578</v>
+      </c>
+      <c r="C47" s="16"/>
       <c r="D47" s="17" t="s">
-        <v>118</v>
+        <v>441</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="G47" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="22">
-        <v>44159</v>
-      </c>
-      <c r="C48" s="22"/>
+        <v>430</v>
+      </c>
+      <c r="B48" s="52">
+        <v>44568</v>
+      </c>
+      <c r="C48" s="16"/>
       <c r="D48" s="17" t="s">
-        <v>116</v>
+        <v>431</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G48" s="18">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="H48" s="32"/>
     </row>
-    <row r="49" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="22">
-        <v>44154</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23" t="s">
-        <v>114</v>
+        <v>429</v>
+      </c>
+      <c r="B49" s="52">
+        <v>44518</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="54" t="s">
+        <v>432</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G49" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="22">
-        <v>44154</v>
-      </c>
-      <c r="C50" s="22"/>
+        <v>415</v>
+      </c>
+      <c r="B50" s="52">
+        <v>44517</v>
+      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="17" t="s">
-        <v>112</v>
+        <v>418</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G50" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="22">
-        <v>44144</v>
-      </c>
-      <c r="C51" s="22"/>
+        <v>414</v>
+      </c>
+      <c r="B51" s="52">
+        <v>44517</v>
+      </c>
+      <c r="C51" s="16"/>
       <c r="D51" s="17" t="s">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G51" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="22">
-        <v>44141</v>
-      </c>
-      <c r="C52" s="22"/>
+        <v>413</v>
+      </c>
+      <c r="B52" s="52">
+        <v>44517</v>
+      </c>
+      <c r="C52" s="16"/>
       <c r="D52" s="17" t="s">
-        <v>108</v>
+        <v>416</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G52" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="22">
-        <v>44141</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="17" t="s">
-        <v>106</v>
+        <v>405</v>
+      </c>
+      <c r="B53" s="52">
+        <v>44504</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="63" t="s">
+        <v>428</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G53" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="22">
-        <v>44139</v>
-      </c>
-      <c r="C54" s="22"/>
+        <v>404</v>
+      </c>
+      <c r="B54" s="52">
+        <v>44501</v>
+      </c>
+      <c r="C54" s="16"/>
       <c r="D54" s="17" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="18"/>
+        <v>408</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G54" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="22">
-        <v>44138</v>
-      </c>
-      <c r="C55" s="22"/>
+        <v>403</v>
+      </c>
+      <c r="B55" s="52">
+        <v>44497</v>
+      </c>
+      <c r="C55" s="16"/>
       <c r="D55" s="17" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="18"/>
+        <v>409</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="G55" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="22">
-        <v>44112</v>
-      </c>
-      <c r="C56" s="22"/>
+        <v>390</v>
+      </c>
+      <c r="B56" s="52">
+        <v>44496</v>
+      </c>
+      <c r="C56" s="16"/>
       <c r="D56" s="17" t="s">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="18"/>
+        <v>392</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="G56" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="22">
-        <v>44111</v>
-      </c>
-      <c r="C57" s="22"/>
+        <v>395</v>
+      </c>
+      <c r="B57" s="52">
+        <v>44477</v>
+      </c>
+      <c r="C57" s="16"/>
       <c r="D57" s="17" t="s">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="22">
-        <v>44110</v>
-      </c>
-      <c r="C58" s="22"/>
+        <v>399</v>
+      </c>
+      <c r="B58" s="52">
+        <v>44477</v>
+      </c>
+      <c r="C58" s="16"/>
       <c r="D58" s="17" t="s">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="32"/>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="22">
-        <v>44092</v>
-      </c>
-      <c r="C59" s="22"/>
+        <v>398</v>
+      </c>
+      <c r="B59" s="52">
+        <v>44474</v>
+      </c>
+      <c r="C59" s="16"/>
       <c r="D59" s="17" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="22">
-        <v>44089</v>
-      </c>
-      <c r="C60" s="22"/>
+        <v>397</v>
+      </c>
+      <c r="B60" s="52">
+        <v>44474</v>
+      </c>
+      <c r="C60" s="16"/>
       <c r="D60" s="17" t="s">
-        <v>90</v>
+        <v>396</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="32"/>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="22">
-        <v>44084</v>
-      </c>
-      <c r="C61" s="22"/>
+        <v>382</v>
+      </c>
+      <c r="B61" s="52">
+        <v>44466</v>
+      </c>
+      <c r="C61" s="16"/>
       <c r="D61" s="17" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="22">
-        <v>44076</v>
-      </c>
-      <c r="C62" s="22"/>
+        <v>381</v>
+      </c>
+      <c r="B62" s="52">
+        <v>44454</v>
+      </c>
+      <c r="C62" s="16"/>
       <c r="D62" s="17" t="s">
-        <v>85</v>
+        <v>384</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="32"/>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="22">
-        <v>44074</v>
-      </c>
-      <c r="C63" s="22"/>
+        <v>380</v>
+      </c>
+      <c r="B63" s="52">
+        <v>44452</v>
+      </c>
+      <c r="C63" s="16"/>
       <c r="D63" s="17" t="s">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="32"/>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="22">
-        <v>44118</v>
-      </c>
-      <c r="C64" s="22"/>
+        <v>379</v>
+      </c>
+      <c r="B64" s="52">
+        <v>44440</v>
+      </c>
+      <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="32"/>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="22">
-        <v>44057</v>
-      </c>
-      <c r="C65" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="B65" s="52">
+        <v>44438</v>
+      </c>
+      <c r="C65" s="16"/>
       <c r="D65" s="17" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="22">
-        <v>44054</v>
-      </c>
-      <c r="C66" s="22"/>
+        <v>324</v>
+      </c>
+      <c r="B66" s="52">
+        <v>44435</v>
+      </c>
+      <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="32"/>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="22">
-        <v>43913</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23" t="s">
-        <v>46</v>
+        <v>322</v>
+      </c>
+      <c r="B67" s="52">
+        <v>44433</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="32"/>
+    </row>
+    <row r="68" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="22">
-        <v>43908</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="24" t="s">
-        <v>44</v>
+        <v>308</v>
+      </c>
+      <c r="B68" s="52">
+        <v>44420</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="22">
-        <v>43906</v>
-      </c>
-      <c r="C69" s="22"/>
+        <v>317</v>
+      </c>
+      <c r="B69" s="52">
+        <v>44420</v>
+      </c>
+      <c r="C69" s="16"/>
       <c r="D69" s="17" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="32"/>
+    </row>
+    <row r="70" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="22">
-        <v>43873</v>
-      </c>
-      <c r="C70" s="22"/>
+        <v>299</v>
+      </c>
+      <c r="B70" s="52">
+        <v>44341</v>
+      </c>
+      <c r="C70" s="16"/>
       <c r="D70" s="17" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="F70" s="18"/>
-      <c r="G70" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G70" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="H70" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="22">
-        <v>43872</v>
-      </c>
-      <c r="C71" s="22"/>
+        <v>282</v>
+      </c>
+      <c r="B71" s="52">
+        <v>44323</v>
+      </c>
+      <c r="C71" s="16"/>
       <c r="D71" s="17" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" s="32"/>
+    </row>
+    <row r="72" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="22">
-        <v>43853</v>
-      </c>
-      <c r="C72" s="22"/>
+        <v>281</v>
+      </c>
+      <c r="B72" s="52">
+        <v>44316</v>
+      </c>
+      <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="F72" s="18"/>
-      <c r="G72" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" s="32"/>
+    </row>
+    <row r="73" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="22">
-        <v>43837</v>
-      </c>
-      <c r="C73" s="22"/>
+        <v>280</v>
+      </c>
+      <c r="B73" s="52">
+        <v>44312</v>
+      </c>
+      <c r="C73" s="16"/>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="F73" s="18"/>
-      <c r="G73" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H73" s="18"/>
-    </row>
-    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G73" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H73" s="32"/>
+    </row>
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="22">
-        <v>44039</v>
-      </c>
-      <c r="C74" s="22"/>
+        <v>279</v>
+      </c>
+      <c r="B74" s="52">
+        <v>44307</v>
+      </c>
+      <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="F74" s="18"/>
-      <c r="G74" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" s="32"/>
+    </row>
+    <row r="75" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="22">
-        <v>44035</v>
-      </c>
-      <c r="C75" s="22"/>
+        <v>278</v>
+      </c>
+      <c r="B75" s="52">
+        <v>44300</v>
+      </c>
+      <c r="C75" s="16"/>
       <c r="D75" s="17" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="F75" s="18"/>
-      <c r="G75" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H75" s="18"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H75" s="32"/>
+    </row>
+    <row r="76" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="22">
-        <v>44035</v>
-      </c>
-      <c r="C76" s="22"/>
+        <v>277</v>
+      </c>
+      <c r="B76" s="52">
+        <v>44298</v>
+      </c>
+      <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="F76" s="18"/>
-      <c r="G76" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G76" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H76" s="32"/>
+    </row>
+    <row r="77" spans="1:8" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="22">
-        <v>44015</v>
-      </c>
-      <c r="C77" s="22"/>
+        <v>273</v>
+      </c>
+      <c r="B77" s="52">
+        <v>44280</v>
+      </c>
+      <c r="C77" s="16"/>
       <c r="D77" s="17" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="F77" s="18"/>
-      <c r="G77" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H77" s="18"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H77" s="32"/>
+    </row>
+    <row r="78" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="22">
-        <v>44012</v>
-      </c>
-      <c r="C78" s="22"/>
+        <v>271</v>
+      </c>
+      <c r="B78" s="52">
+        <v>44245</v>
+      </c>
+      <c r="C78" s="16"/>
       <c r="D78" s="17" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="F78" s="18"/>
-      <c r="G78" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H78" s="18"/>
-    </row>
-    <row r="79" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="G78" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H78" s="32"/>
+    </row>
+    <row r="79" spans="1:8" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="22">
-        <v>44011</v>
-      </c>
-      <c r="C79" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="B79" s="52">
+        <v>44231</v>
+      </c>
+      <c r="C79" s="16"/>
       <c r="D79" s="17" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="F79" s="18"/>
-      <c r="G79" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G79" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" s="32"/>
+    </row>
+    <row r="80" spans="1:8" s="1" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="22">
-        <v>43830</v>
-      </c>
-      <c r="C80" s="22"/>
+        <v>267</v>
+      </c>
+      <c r="B80" s="52">
+        <v>44230</v>
+      </c>
+      <c r="C80" s="16"/>
       <c r="D80" s="17" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="F80" s="18"/>
-      <c r="G80" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H80" s="18"/>
-    </row>
-    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G80" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H80" s="32"/>
+    </row>
+    <row r="81" spans="1:8" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" s="22">
-        <v>43994</v>
-      </c>
-      <c r="C81" s="22"/>
+        <v>264</v>
+      </c>
+      <c r="B81" s="52">
+        <v>44208</v>
+      </c>
+      <c r="C81" s="16"/>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="H81" s="18"/>
-    </row>
-    <row r="82" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H81" s="32"/>
+    </row>
+    <row r="82" spans="1:8" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="22">
-        <v>43987</v>
-      </c>
-      <c r="C82" s="22"/>
+        <v>259</v>
+      </c>
+      <c r="B82" s="52">
+        <v>44183</v>
+      </c>
+      <c r="C82" s="16"/>
       <c r="D82" s="17" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18">
@@ -6503,19 +7406,19 @@
       </c>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="22">
-        <v>43986</v>
-      </c>
-      <c r="C83" s="22"/>
+        <v>258</v>
+      </c>
+      <c r="B83" s="52">
+        <v>44182</v>
+      </c>
+      <c r="C83" s="16"/>
       <c r="D83" s="17" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18">
@@ -6523,19 +7426,19 @@
       </c>
       <c r="H83" s="18"/>
     </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="B84" s="22">
-        <v>43983</v>
-      </c>
-      <c r="C84" s="22"/>
+        <v>44175</v>
+      </c>
+      <c r="C84" s="16"/>
       <c r="D84" s="17" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18">
@@ -6543,19 +7446,19 @@
       </c>
       <c r="H84" s="18"/>
     </row>
-    <row r="85" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B85" s="22">
-        <v>43978</v>
+        <v>44162</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="17" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18">
@@ -6563,39 +7466,39 @@
       </c>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B86" s="22">
-        <v>43978</v>
+        <v>44159</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="17" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18">
         <v>3.1</v>
       </c>
-      <c r="H86" s="18"/>
-    </row>
-    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="H86" s="32"/>
+    </row>
+    <row r="87" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B87" s="22">
-        <v>43959</v>
+        <v>44154</v>
       </c>
       <c r="C87" s="22"/>
-      <c r="D87" s="17" t="s">
-        <v>54</v>
+      <c r="D87" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18">
@@ -6603,19 +7506,19 @@
       </c>
       <c r="H87" s="18"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B88" s="22">
-        <v>43943</v>
+        <v>44154</v>
       </c>
       <c r="C88" s="22"/>
-      <c r="D88" s="23" t="s">
-        <v>52</v>
+      <c r="D88" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18">
@@ -6623,19 +7526,19 @@
       </c>
       <c r="H88" s="18"/>
     </row>
-    <row r="89" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B89" s="22">
-        <v>43936</v>
+        <v>44144</v>
       </c>
       <c r="C89" s="22"/>
-      <c r="D89" s="24" t="s">
-        <v>50</v>
+      <c r="D89" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18">
@@ -6643,19 +7546,19 @@
       </c>
       <c r="H89" s="18"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B90" s="22">
-        <v>43929</v>
+        <v>44141</v>
       </c>
       <c r="C90" s="22"/>
-      <c r="D90" s="23" t="s">
-        <v>48</v>
+      <c r="D90" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18">
@@ -6663,19 +7566,19 @@
       </c>
       <c r="H90" s="18"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B91" s="22">
-        <v>43829</v>
+        <v>44141</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="17" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18">
@@ -6683,19 +7586,19 @@
       </c>
       <c r="H91" s="18"/>
     </row>
-    <row r="92" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B92" s="22">
-        <v>43826</v>
+        <v>44139</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="17" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18">
@@ -6703,19 +7606,19 @@
       </c>
       <c r="H92" s="18"/>
     </row>
-    <row r="93" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B93" s="22">
-        <v>43784</v>
+        <v>44138</v>
       </c>
       <c r="C93" s="22"/>
-      <c r="D93" s="24" t="s">
-        <v>22</v>
+      <c r="D93" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18">
@@ -6723,19 +7626,19 @@
       </c>
       <c r="H93" s="18"/>
     </row>
-    <row r="94" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B94" s="22">
-        <v>43783</v>
+        <v>44112</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="17" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18">
@@ -6743,19 +7646,19 @@
       </c>
       <c r="H94" s="18"/>
     </row>
-    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B95" s="22">
-        <v>43768</v>
+        <v>44111</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="17" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18">
@@ -6763,19 +7666,19 @@
       </c>
       <c r="H95" s="18"/>
     </row>
-    <row r="96" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B96" s="22">
-        <v>43767</v>
+        <v>44110</v>
       </c>
       <c r="C96" s="22"/>
       <c r="D96" s="17" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18">
@@ -6785,97 +7688,97 @@
     </row>
     <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B97" s="22">
-        <v>43754</v>
+        <v>44092</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B98" s="22">
-        <v>43741</v>
+        <v>44089</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="17" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H98" s="18"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B99" s="22">
-        <v>43733</v>
+        <v>44084</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="17" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H99" s="18"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B100" s="22">
-        <v>43731</v>
+        <v>44076</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="17" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H100" s="18"/>
     </row>
-    <row r="101" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B101" s="22">
-        <v>43794</v>
+        <v>44074</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="17" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="18">
@@ -6883,19 +7786,19 @@
       </c>
       <c r="H101" s="18"/>
     </row>
-    <row r="102" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B102" s="22">
-        <v>43788</v>
+        <v>44118</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="17" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="18">
@@ -6903,54 +7806,814 @@
       </c>
       <c r="H102" s="18"/>
     </row>
-    <row r="103" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B103" s="22">
-        <v>43731</v>
+        <v>44057</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="17" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H103" s="18"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B104" s="22">
-        <v>43726</v>
+        <v>44054</v>
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="17" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="22">
+        <v>43913</v>
+      </c>
+      <c r="C105" s="22"/>
+      <c r="D105" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="22">
+        <v>43908</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="22">
+        <v>43906</v>
+      </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="22">
+        <v>43873</v>
+      </c>
+      <c r="C108" s="22"/>
+      <c r="D108" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="22">
+        <v>43872</v>
+      </c>
+      <c r="C109" s="22"/>
+      <c r="D109" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="22">
+        <v>43853</v>
+      </c>
+      <c r="C110" s="22"/>
+      <c r="D110" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="22">
+        <v>43837</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112" s="22">
+        <v>44039</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" s="22">
+        <v>44035</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="22">
+        <v>44035</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" s="22">
+        <v>44015</v>
+      </c>
+      <c r="C115" s="22"/>
+      <c r="D115" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B116" s="22">
+        <v>44012</v>
+      </c>
+      <c r="C116" s="22"/>
+      <c r="D116" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="22">
+        <v>44011</v>
+      </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="22">
+        <v>43830</v>
+      </c>
+      <c r="C118" s="22"/>
+      <c r="D118" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" s="22">
+        <v>43994</v>
+      </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H119" s="18"/>
+    </row>
+    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="22">
+        <v>43987</v>
+      </c>
+      <c r="C120" s="22"/>
+      <c r="D120" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" s="22">
+        <v>43986</v>
+      </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H121" s="18"/>
+    </row>
+    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="22">
+        <v>43983</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="22">
+        <v>43978</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H123" s="18"/>
+    </row>
+    <row r="124" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="22">
+        <v>43978</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H124" s="18"/>
+    </row>
+    <row r="125" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="22">
+        <v>43959</v>
+      </c>
+      <c r="C125" s="22"/>
+      <c r="D125" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H125" s="18"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="22">
+        <v>43943</v>
+      </c>
+      <c r="C126" s="22"/>
+      <c r="D126" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H126" s="18"/>
+    </row>
+    <row r="127" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" s="22">
+        <v>43936</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H127" s="18"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B128" s="22">
+        <v>43929</v>
+      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H128" s="18"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="22">
+        <v>43829</v>
+      </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H129" s="18"/>
+    </row>
+    <row r="130" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="22">
+        <v>43826</v>
+      </c>
+      <c r="C130" s="22"/>
+      <c r="D130" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H130" s="18"/>
+    </row>
+    <row r="131" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="22">
+        <v>43784</v>
+      </c>
+      <c r="C131" s="22"/>
+      <c r="D131" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H131" s="18"/>
+    </row>
+    <row r="132" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="22">
+        <v>43783</v>
+      </c>
+      <c r="C132" s="22"/>
+      <c r="D132" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H132" s="18"/>
+    </row>
+    <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="22">
+        <v>43768</v>
+      </c>
+      <c r="C133" s="22"/>
+      <c r="D133" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H133" s="18"/>
+    </row>
+    <row r="134" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="22">
+        <v>43767</v>
+      </c>
+      <c r="C134" s="22"/>
+      <c r="D134" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H134" s="18"/>
+    </row>
+    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="22">
+        <v>43754</v>
+      </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18">
         <v>3</v>
       </c>
-      <c r="H104" s="19"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
+      <c r="H135" s="18"/>
+    </row>
+    <row r="136" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="22">
+        <v>43741</v>
+      </c>
+      <c r="C136" s="22"/>
+      <c r="D136" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18">
+        <v>3</v>
+      </c>
+      <c r="H136" s="18"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="22">
+        <v>43733</v>
+      </c>
+      <c r="C137" s="22"/>
+      <c r="D137" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18">
+        <v>3</v>
+      </c>
+      <c r="H137" s="18"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="22">
+        <v>43731</v>
+      </c>
+      <c r="C138" s="22"/>
+      <c r="D138" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18">
+        <v>3</v>
+      </c>
+      <c r="H138" s="18"/>
+    </row>
+    <row r="139" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="22">
+        <v>43794</v>
+      </c>
+      <c r="C139" s="22"/>
+      <c r="D139" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H139" s="18"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="22">
+        <v>43788</v>
+      </c>
+      <c r="C140" s="22"/>
+      <c r="D140" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H140" s="18"/>
+    </row>
+    <row r="141" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="22">
+        <v>43731</v>
+      </c>
+      <c r="C141" s="22"/>
+      <c r="D141" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18">
+        <v>3</v>
+      </c>
+      <c r="H141" s="18"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="22">
+        <v>43726</v>
+      </c>
+      <c r="C142" s="22"/>
+      <c r="D142" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18">
+        <v>3</v>
+      </c>
+      <c r="H142" s="19"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="25"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
     </row>
   </sheetData>
   <sortState ref="A1:E60">
@@ -6964,30 +8627,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C16:C17"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="145" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -6997,237 +8660,369 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>448</v>
+        <v>590</v>
       </c>
       <c r="B4" s="41">
+        <v>45266</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" s="41">
+        <v>45138</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="41">
+        <v>45133</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="41">
+        <v>45030</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="41">
+        <v>45015</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="41">
+        <v>45013</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="72">
+        <v>45013</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="41">
+        <v>44987</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="51" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="41">
+        <v>44986</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="41">
+        <v>44938</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="41">
+        <v>44867</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="41">
+        <v>44854</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="41">
         <v>44539</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="C16" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="41">
+        <v>44501</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="41">
-        <v>44501</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B18" s="41">
         <v>44323</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="19" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B19" s="41">
         <v>44281</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B20" s="33">
         <v>44154</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B21" s="33">
         <v>44138</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B22" s="33">
         <v>44112</v>
       </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B23" s="33">
         <v>44111</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B24" s="33">
         <v>44110</v>
       </c>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B25" s="33">
         <v>44110</v>
       </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B26" s="33">
         <v>44076</v>
       </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B27" s="33">
         <v>44073</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B28" s="33">
         <v>44054</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B29" s="33">
         <v>44015</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B30" s="33">
         <v>43987</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B31" s="33">
         <v>43986</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B32" s="33">
         <v>43978</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B33" s="33">
         <v>43959</v>
       </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B34" s="33">
         <v>43943</v>
       </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B35" s="33">
         <v>43895</v>
       </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B36" s="33">
         <v>43830</v>
       </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B37" s="33">
         <v>43783</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B38" s="33">
         <v>43731</v>
       </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B39" s="33">
         <v>43726</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="E27" s="34"/>
+      <c r="C39" s="18"/>
+      <c r="E39" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A2:B21">
@@ -7244,18 +9039,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="149.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -7266,7 +9061,7 @@
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -7281,24 +9076,32 @@
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="72">
+        <v>45013</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B5" s="41">
         <v>44420</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="18"/>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="28"/>
@@ -7341,6 +9144,9 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7355,7 +9161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7397,7 +9203,7 @@
         <v>44496</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7408,7 +9214,7 @@
         <v>44341</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7513,13 +9319,13 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="6">
         <v>44545</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/Firmware/CSL Intelligent Fixed Readers Release Notes.xlsx
+++ b/Firmware/CSL Intelligent Fixed Readers Release Notes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarlsonLam\Documents\GitHub\CS463-CS203X-Product-Downloads\Firmware\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE921BAA-62FD-4B8F-90B6-FCD7D77A361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="34605" windowHeight="20985" tabRatio="831" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="10" r:id="rId1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="606">
   <si>
     <t>Version</t>
   </si>
@@ -2548,16 +2554,37 @@
     <t>update JNI RFID library, Web Application version, RFID firmware version</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>V1.4.82</t>
+  </si>
+  <si>
+    <t>V1.4.83</t>
+  </si>
+  <si>
+    <t>Add GPO(1-4) startup setting</t>
+  </si>
+  <si>
+    <t>Two new trigger mode "Periodic Time" and "UDP trigger"
+New resultant action mode "Notify the server or reader using UDP messages".
+Added 5 new tag group HTTP commands
+(newTagGroup/addTagGroupMember/delTagGroupMember/delTagGroupMemberAll/importTagGroup)</t>
+  </si>
+  <si>
+    <t>Change GPIO setting and test page UI</t>
+  </si>
+  <si>
+    <t>V1.4.86</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2565,19 +2592,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2585,7 +2612,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2594,7 +2621,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2676,7 +2703,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2691,14 +2718,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2794,7 +2821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2815,7 +2842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2864,13 +2890,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2922,7 +2948,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2934,13 +2959,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2953,7 +2972,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2989,22 +3007,22 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3035,7 +3053,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3345,706 +3363,706 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="75.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:16" ht="75.75" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="61"/>
-    </row>
-    <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:16" ht="25.5" customHeight="1"/>
+    <row r="3" spans="1:16" ht="25.5">
+      <c r="A3" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-    </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" ht="25.5">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="1:16" ht="25.5">
+      <c r="A5" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" ht="25.5">
+      <c r="A6" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-    </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+    </row>
+    <row r="7" spans="1:16" ht="25.5">
+      <c r="A7" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-    </row>
-    <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="59" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+    </row>
+    <row r="8" spans="1:16" ht="25.5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" ht="26.25">
+      <c r="A10" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A12" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5">
+      <c r="A14" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-    </row>
-    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="25.5">
+      <c r="A16" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+    </row>
+    <row r="18" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+    </row>
+    <row r="20" spans="1:16" ht="25.5">
+      <c r="A20" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+    </row>
+    <row r="22" spans="1:16" ht="25.5">
+      <c r="A22" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+    </row>
+    <row r="24" spans="1:16" ht="25.5">
+      <c r="A24" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-    </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+    </row>
+    <row r="25" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+    </row>
+    <row r="26" spans="1:16" ht="25.5">
+      <c r="A26" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="46" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+    </row>
+    <row r="28" spans="1:16" ht="25.5">
+      <c r="A28" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-    </row>
-    <row r="30" spans="1:16" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+    </row>
+    <row r="29" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+    </row>
+    <row r="30" spans="1:16" s="55" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-    </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+    </row>
+    <row r="32" spans="1:16" ht="25.5">
+      <c r="A32" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-    </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-    </row>
-    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="46" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+    </row>
+    <row r="33" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+    </row>
+    <row r="34" spans="1:16" ht="25.5">
+      <c r="A34" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-    </row>
-    <row r="35" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="46" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+    </row>
+    <row r="35" spans="1:16" ht="9.75" customHeight="1"/>
+    <row r="36" spans="1:16" ht="25.5">
+      <c r="A36" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-    </row>
-    <row r="37" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="46" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+    </row>
+    <row r="37" spans="1:16" ht="9.75" customHeight="1"/>
+    <row r="38" spans="1:16" ht="25.5">
+      <c r="A38" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-    </row>
-    <row r="39" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="46" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+    </row>
+    <row r="39" spans="1:16" ht="10.5" customHeight="1"/>
+    <row r="40" spans="1:16" ht="25.5">
+      <c r="A40" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4054,98 +4072,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>466</v>
       </c>
       <c r="B4" s="6">
         <v>44865</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>449</v>
       </c>
       <c r="B5" s="6">
         <v>44763</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="6">
         <v>44146</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B7" s="6">
         <v>44120</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="6">
         <v>44119</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>141</v>
       </c>
@@ -4156,7 +4174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>140</v>
       </c>
@@ -4167,7 +4185,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -4185,43 +4203,43 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="55.5" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>455</v>
       </c>
@@ -4232,7 +4250,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>434</v>
       </c>
@@ -4243,7 +4261,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -4254,7 +4272,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>123</v>
       </c>
@@ -4265,7 +4283,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
@@ -4276,7 +4294,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>151</v>
       </c>
@@ -4294,581 +4312,581 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="105.28515625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="105.28515625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="49"/>
-    </row>
-    <row r="4" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>45272</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A5" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>44792</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A6" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>44615</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A7" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>44459</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="58" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A8" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>44448</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A9" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>44165</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A10" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>44162</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>44139</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>44092</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>44046</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="47" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>44042</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>44019</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>43843</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>256</v>
       </c>
       <c r="G16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>43840</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>43818</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>43803</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>43801</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>43738</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>43713</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>43712</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>43691</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="78">
+      <c r="B25" s="75">
         <v>43648</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="24" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>43557</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>43530</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>43479</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>43363</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>43363</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>43339</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>43335</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>43304</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>43290</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>43220</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>43217</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>43208</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>43206</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>43202</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>43077</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>43054</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>42968</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="78">
+      <c r="B45" s="75">
         <v>42914</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="24" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="74"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="78">
+      <c r="B47" s="75">
         <v>42782</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="24" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="74"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="36">
         <v>42752</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="36">
         <v>42741</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="36">
         <v>42683</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="36">
         <v>42676</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="36">
         <v>42676</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="42" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4887,55 +4905,55 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="60" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>330</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4962,55 +4980,55 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="60" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>347</v>
       </c>
@@ -5022,7 +5040,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5036,55 +5054,55 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="108.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="60" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" s="5" t="s">
         <v>351</v>
       </c>
@@ -5092,11 +5110,11 @@
         <v>44442</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="53" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5110,55 +5128,55 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="108.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="60" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>355</v>
       </c>
@@ -5166,9 +5184,9 @@
         <v>43320</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="57"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5182,55 +5200,55 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="108.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="60" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>356</v>
       </c>
@@ -5238,49 +5256,49 @@
         <v>43326</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="57"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>356</v>
       </c>
@@ -5288,9 +5306,9 @@
         <v>43642</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="57"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5304,203 +5322,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="103.140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:2" ht="45.75" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:2" ht="42" customHeight="1">
+      <c r="A2" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="64" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-    </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73">
+    <row r="3" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A4" s="68">
         <v>45306</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="70" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
+    <row r="5" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A5" s="68">
         <v>45134</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73">
+    <row r="6" spans="1:2" ht="21" customHeight="1">
+      <c r="A6" s="68">
         <v>45118</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+    <row r="7" spans="1:2" ht="21" customHeight="1">
+      <c r="A7" s="61">
         <v>45113</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="59" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+    <row r="8" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A8" s="61">
         <v>45110</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="59" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+    <row r="9" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A9" s="61">
         <v>44869</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="59" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
+    <row r="10" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A10" s="61">
         <v>44763</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="59" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
+    <row r="11" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A11" s="61">
         <v>44609</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="59" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+    <row r="12" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A12" s="61">
         <v>44585</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="59" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+    <row r="13" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A13" s="61">
         <v>44578</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="59" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+    <row r="14" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A14" s="61">
         <v>44575</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="59" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
+    <row r="15" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A15" s="61">
         <v>44565</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="59" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
+    <row r="16" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A16" s="61">
         <v>44545</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="59" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="64"/>
-    </row>
-    <row r="18" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="64"/>
-    </row>
-    <row r="19" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="64"/>
-    </row>
-    <row r="20" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="64"/>
-    </row>
-    <row r="21" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="64"/>
-    </row>
-    <row r="22" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="64"/>
-    </row>
-    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="64"/>
-    </row>
-    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="64"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="64"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="64"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="64"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="64"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="64"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="64"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="64"/>
+    <row r="17" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="59"/>
+    </row>
+    <row r="18" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="59"/>
+    </row>
+    <row r="19" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="59"/>
+    </row>
+    <row r="20" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="59"/>
+    </row>
+    <row r="21" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="59"/>
+    </row>
+    <row r="22" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="59"/>
+    </row>
+    <row r="23" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="59"/>
+    </row>
+    <row r="24" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="59"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="59"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="59"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="62"/>
+      <c r="B29" s="59"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="62"/>
+      <c r="B30" s="59"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="59"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5510,14 +5528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" customWidth="1"/>
@@ -5527,119 +5545,119 @@
     <col min="6" max="6" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17" t="s">
+    <row r="3" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="121.5" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:6" ht="129" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:6" ht="138" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="54" t="s">
+    <row r="8" spans="1:6" ht="129" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5651,2973 +5669,3029 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="104.7109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="30.42578125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="27" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="104.7109375" style="29" customWidth="1"/>
+    <col min="5" max="6" width="30.42578125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="27" style="27" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="49">
+        <v>45681</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="G3" s="17">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" s="49">
+        <v>45628</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="17">
+        <v>8</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="57">
+      <c r="A5" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B5" s="49">
+        <v>45608</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" s="17">
+        <v>8</v>
+      </c>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B6" s="49">
         <v>45299</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G6" s="17">
         <v>8</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B7" s="49">
         <v>45296</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="79" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="69" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G7" s="17">
         <v>8</v>
       </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B8" s="49">
         <v>45296</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G8" s="17">
         <v>8</v>
       </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A9" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B9" s="49">
         <v>45296</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B10" s="49">
         <v>45295</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G10" s="17">
         <v>8</v>
       </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B11" s="49">
         <v>45271</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G11" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B12" s="49">
         <v>45266</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E12" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G12" s="17">
         <v>8</v>
       </c>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B13" s="49">
         <v>45266</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G13" s="17">
         <v>8</v>
       </c>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B14" s="49">
         <v>45264</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G14" s="17">
         <v>8</v>
       </c>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B15" s="49">
         <v>45216</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G15" s="17">
         <v>8</v>
       </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B16" s="49">
         <v>45216</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G16" s="17">
         <v>8</v>
       </c>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A17" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B17" s="49">
         <v>45203</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G17" s="17">
         <v>8</v>
       </c>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B18" s="49">
         <v>45138</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E18" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G18" s="17">
         <v>8</v>
       </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A19" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B19" s="49">
         <v>45133</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G19" s="17">
         <v>8</v>
       </c>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A20" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B20" s="49">
         <v>45107</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G20" s="17">
         <v>8</v>
       </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A21" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B21" s="49">
         <v>45084</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G21" s="17">
         <v>8</v>
       </c>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A22" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B22" s="49">
         <v>45050</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G22" s="17">
         <v>8</v>
       </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A23" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B23" s="49">
         <v>45015</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G23" s="17">
         <v>8</v>
       </c>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="136.5" customHeight="1">
+      <c r="A24" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B24" s="66">
         <v>45013</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="70" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E24" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F24" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G24" s="17">
         <v>8</v>
       </c>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" s="51" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A25" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B25" s="49">
         <v>44987</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G25" s="17">
         <v>8</v>
       </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A26" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B26" s="49">
         <v>44986</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G26" s="17">
         <v>8</v>
       </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A27" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B27" s="49">
         <v>44970</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G27" s="17">
         <v>8</v>
       </c>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A28" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B28" s="49">
         <v>44970</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G28" s="17">
         <v>8</v>
       </c>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B29" s="49">
         <v>44970</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G29" s="17">
         <v>8</v>
       </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A30" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B30" s="49">
         <v>44970</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G30" s="17">
         <v>8</v>
       </c>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A31" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B31" s="49">
         <v>44970</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G31" s="17">
         <v>8</v>
       </c>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A32" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B32" s="49">
         <v>44958</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G32" s="17">
         <v>8</v>
       </c>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A33" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B33" s="49">
         <v>44958</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G33" s="17">
         <v>8</v>
       </c>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A34" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B34" s="49">
         <v>44958</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G34" s="17">
         <v>8</v>
       </c>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A35" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B35" s="49">
         <v>44957</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G35" s="17">
         <v>8</v>
       </c>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A36" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B36" s="49">
         <v>44956</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F36" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G36" s="17">
         <v>8</v>
       </c>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A37" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B37" s="49">
         <v>44956</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F37" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G37" s="17">
         <v>8</v>
       </c>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" s="51" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A38" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B38" s="49">
         <v>44956</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G38" s="17">
         <v>8</v>
       </c>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A39" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B37" s="52">
+      <c r="B39" s="49">
         <v>44932</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G39" s="17">
         <v>8</v>
       </c>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A40" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B40" s="49">
         <v>44897</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G40" s="17">
         <v>8</v>
       </c>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" s="51" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" ht="84.75" customHeight="1">
+      <c r="A41" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B41" s="49">
         <v>44897</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G41" s="17">
         <v>8</v>
       </c>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A42" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B42" s="49">
         <v>44890</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G42" s="17">
         <v>8</v>
       </c>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A43" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B43" s="49">
         <v>44854</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G43" s="17">
         <v>8</v>
       </c>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A44" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B44" s="49">
         <v>44735</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F44" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G44" s="17">
         <v>8</v>
       </c>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A45" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B45" s="49">
         <v>44734</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F45" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G45" s="17">
         <v>8</v>
       </c>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A46" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B46" s="49">
         <v>44585</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F46" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G46" s="17">
         <v>8</v>
       </c>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A47" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B47" s="49">
         <v>44580</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F47" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G47" s="17">
         <v>8</v>
       </c>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A48" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B48" s="49">
         <v>44579</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F48" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G48" s="17">
         <v>8</v>
       </c>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A49" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B49" s="49">
         <v>44578</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F49" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G49" s="17">
         <v>8</v>
       </c>
-      <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A50" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B50" s="49">
         <v>44568</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F50" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G50" s="17">
         <v>8</v>
       </c>
-      <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A51" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B51" s="49">
         <v>44518</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="54" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G51" s="17">
         <v>8</v>
       </c>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A52" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B52" s="49">
         <v>44517</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G52" s="17">
         <v>8</v>
       </c>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A53" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="B51" s="52">
+      <c r="B53" s="49">
         <v>44517</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17" t="s">
+      <c r="C53" s="15"/>
+      <c r="D53" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G53" s="17">
         <v>8</v>
       </c>
-      <c r="H51" s="32"/>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A54" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B54" s="49">
         <v>44517</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F54" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G54" s="17">
         <v>8</v>
       </c>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="H54" s="31"/>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A55" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B55" s="49">
         <v>44504</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="63" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F55" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G55" s="17">
         <v>8</v>
       </c>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="H55" s="31"/>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A56" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B56" s="49">
         <v>44501</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G56" s="17">
         <v>8</v>
       </c>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A57" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B57" s="49">
         <v>44497</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F57" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G57" s="17">
         <v>8</v>
       </c>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="H57" s="31"/>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A58" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B58" s="49">
         <v>44496</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17" t="s">
+      <c r="C58" s="15"/>
+      <c r="D58" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F58" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G58" s="17">
         <v>8</v>
       </c>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="H58" s="31"/>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A59" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B59" s="49">
         <v>44477</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F59" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="G59" s="17"/>
+      <c r="H59" s="31"/>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A60" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="B58" s="52">
+      <c r="B60" s="49">
         <v>44477</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F60" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="32"/>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="G60" s="17"/>
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A61" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B61" s="49">
         <v>44474</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F61" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="G61" s="17"/>
+      <c r="H61" s="31"/>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A62" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B62" s="49">
         <v>44474</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F62" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="32"/>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="G62" s="17"/>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A63" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B61" s="52">
+      <c r="B63" s="49">
         <v>44466</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="G63" s="17"/>
+      <c r="H63" s="31"/>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A64" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B64" s="49">
         <v>44454</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17" t="s">
+      <c r="C64" s="15"/>
+      <c r="D64" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F64" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="32"/>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="G64" s="17"/>
+      <c r="H64" s="31"/>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A65" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B65" s="49">
         <v>44452</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F65" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="32"/>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="G65" s="17"/>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
+      <c r="A66" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B66" s="49">
         <v>44440</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17" t="s">
+      <c r="C66" s="15"/>
+      <c r="D66" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F66" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="G64" s="18"/>
-      <c r="H64" s="32"/>
-    </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="G66" s="17"/>
+      <c r="H66" s="31"/>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A67" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B67" s="49">
         <v>44438</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F67" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="32"/>
-    </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="G67" s="17"/>
+      <c r="H67" s="31"/>
+    </row>
+    <row r="68" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A68" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B68" s="49">
         <v>44435</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F68" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="32"/>
-    </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="G68" s="17"/>
+      <c r="H68" s="31"/>
+    </row>
+    <row r="69" spans="1:8" s="1" customFormat="1" ht="105" customHeight="1">
+      <c r="A69" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B69" s="49">
         <v>44433</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F69" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G67" s="18"/>
-      <c r="H67" s="32"/>
-    </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="G69" s="17"/>
+      <c r="H69" s="31"/>
+    </row>
+    <row r="70" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A70" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B68" s="52">
+      <c r="B70" s="49">
         <v>44420</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F70" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="55" t="s">
+      <c r="G70" s="17"/>
+      <c r="H70" s="51" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+    <row r="71" spans="1:8" s="1" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A71" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B71" s="49">
         <v>44420</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17" t="s">
+      <c r="C71" s="15"/>
+      <c r="D71" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F71" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="32"/>
-    </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="G71" s="17"/>
+      <c r="H71" s="31"/>
+    </row>
+    <row r="72" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A72" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B70" s="52">
+      <c r="B72" s="49">
         <v>44341</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="H70" s="55" t="s">
+      <c r="H72" s="51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+    <row r="73" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A73" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B73" s="49">
         <v>44323</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18" t="s">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="H73" s="31"/>
+    </row>
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A74" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B72" s="52">
+      <c r="B74" s="49">
         <v>44316</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17" t="s">
+      <c r="C74" s="15"/>
+      <c r="D74" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E74" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18" t="s">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H72" s="32"/>
-    </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="H74" s="31"/>
+    </row>
+    <row r="75" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A75" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B73" s="52">
+      <c r="B75" s="49">
         <v>44312</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18" t="s">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H73" s="32"/>
-    </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="H75" s="31"/>
+    </row>
+    <row r="76" spans="1:8" s="1" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A76" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B76" s="49">
         <v>44307</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18" t="s">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H74" s="32"/>
-    </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="H76" s="31"/>
+    </row>
+    <row r="77" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A77" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="52">
+      <c r="B77" s="49">
         <v>44300</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17" t="s">
+      <c r="C77" s="15"/>
+      <c r="D77" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18" t="s">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H75" s="32"/>
-    </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="H77" s="31"/>
+    </row>
+    <row r="78" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A78" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B76" s="52">
+      <c r="B78" s="49">
         <v>44298</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18" t="s">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H76" s="32"/>
-    </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="H78" s="31"/>
+    </row>
+    <row r="79" spans="1:8" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A79" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B77" s="52">
+      <c r="B79" s="49">
         <v>44280</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E79" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18" t="s">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H77" s="32"/>
-    </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="H79" s="31"/>
+    </row>
+    <row r="80" spans="1:8" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A80" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B80" s="49">
         <v>44245</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17" t="s">
+      <c r="C80" s="15"/>
+      <c r="D80" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E80" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18" t="s">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H78" s="32"/>
-    </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="H80" s="31"/>
+    </row>
+    <row r="81" spans="1:8" s="1" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A81" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="52">
+      <c r="B81" s="49">
         <v>44231</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E81" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H79" s="32"/>
-    </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+      <c r="H81" s="31"/>
+    </row>
+    <row r="82" spans="1:8" s="1" customFormat="1" ht="178.5" customHeight="1">
+      <c r="A82" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B80" s="52">
+      <c r="B82" s="49">
         <v>44230</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17" t="s">
+      <c r="C82" s="15"/>
+      <c r="D82" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18" t="s">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H80" s="32"/>
-    </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+      <c r="H82" s="31"/>
+    </row>
+    <row r="83" spans="1:8" s="1" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A83" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B83" s="49">
         <v>44208</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17" t="s">
+      <c r="C83" s="15"/>
+      <c r="D83" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E83" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18">
+      <c r="F83" s="17"/>
+      <c r="G83" s="17">
         <v>4</v>
       </c>
-      <c r="H81" s="32"/>
-    </row>
-    <row r="82" spans="1:8" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
+      <c r="H83" s="31"/>
+    </row>
+    <row r="84" spans="1:8" ht="41.25" customHeight="1">
+      <c r="A84" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B82" s="52">
+      <c r="B84" s="49">
         <v>44183</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17" t="s">
+      <c r="C84" s="15"/>
+      <c r="D84" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E84" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17">
         <v>3.1</v>
       </c>
-      <c r="H82" s="18"/>
-    </row>
-    <row r="83" spans="1:8" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="1:8" ht="41.25" customHeight="1">
+      <c r="A85" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B85" s="49">
         <v>44182</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17" t="s">
+      <c r="C85" s="15"/>
+      <c r="D85" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E85" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17">
         <v>3.1</v>
       </c>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A86" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B86" s="21">
         <v>44175</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17" t="s">
+      <c r="C86" s="15"/>
+      <c r="D86" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E86" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18">
+      <c r="F86" s="17"/>
+      <c r="G86" s="17">
         <v>3.1</v>
       </c>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A87" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B87" s="21">
         <v>44162</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="17" t="s">
+      <c r="C87" s="21"/>
+      <c r="D87" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E87" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18">
+      <c r="F87" s="17"/>
+      <c r="G87" s="17">
         <v>3.1</v>
       </c>
-      <c r="H85" s="18"/>
-    </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A88" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B88" s="21">
         <v>44159</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="17" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E88" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18">
+      <c r="F88" s="17"/>
+      <c r="G88" s="17">
         <v>3.1</v>
       </c>
-      <c r="H86" s="32"/>
-    </row>
-    <row r="87" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="H88" s="31"/>
+    </row>
+    <row r="89" spans="1:8" ht="41.25" customHeight="1">
+      <c r="A89" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B89" s="21">
         <v>44154</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E89" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18">
+      <c r="F89" s="17"/>
+      <c r="G89" s="17">
         <v>3.1</v>
       </c>
-      <c r="H87" s="18"/>
-    </row>
-    <row r="88" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" ht="156" customHeight="1">
+      <c r="A90" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B90" s="21">
         <v>44154</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="17" t="s">
+      <c r="C90" s="21"/>
+      <c r="D90" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18">
+      <c r="F90" s="17"/>
+      <c r="G90" s="17">
         <v>3.1</v>
       </c>
-      <c r="H88" s="18"/>
-    </row>
-    <row r="89" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:8" ht="85.5">
+      <c r="A91" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B91" s="21">
         <v>44144</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="17" t="s">
+      <c r="C91" s="21"/>
+      <c r="D91" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18">
+      <c r="F91" s="17"/>
+      <c r="G91" s="17">
         <v>3.1</v>
       </c>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8" ht="57">
+      <c r="A92" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B92" s="21">
         <v>44141</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="17" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E92" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18">
+      <c r="F92" s="17"/>
+      <c r="G92" s="17">
         <v>3.1</v>
       </c>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A93" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B93" s="21">
         <v>44141</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="17" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18">
+      <c r="F93" s="17"/>
+      <c r="G93" s="17">
         <v>3.1</v>
       </c>
-      <c r="H91" s="18"/>
-    </row>
-    <row r="92" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" ht="85.5">
+      <c r="A94" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B94" s="21">
         <v>44139</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="17" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18">
+      <c r="F94" s="17"/>
+      <c r="G94" s="17">
         <v>3.1</v>
       </c>
-      <c r="H92" s="18"/>
-    </row>
-    <row r="93" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" ht="57">
+      <c r="A95" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B95" s="21">
         <v>44138</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="17" t="s">
+      <c r="C95" s="21"/>
+      <c r="D95" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18">
+      <c r="F95" s="17"/>
+      <c r="G95" s="17">
         <v>3.1</v>
       </c>
-      <c r="H93" s="18"/>
-    </row>
-    <row r="94" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8" ht="42.75">
+      <c r="A96" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B96" s="21">
         <v>44112</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="17" t="s">
+      <c r="C96" s="21"/>
+      <c r="D96" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18">
+      <c r="F96" s="17"/>
+      <c r="G96" s="17">
         <v>3.1</v>
       </c>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B97" s="21">
         <v>44111</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="17" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18">
+      <c r="F97" s="17"/>
+      <c r="G97" s="17">
         <v>3.1</v>
       </c>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:8" ht="28.5">
+      <c r="A98" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B98" s="21">
         <v>44110</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="17" t="s">
+      <c r="C98" s="21"/>
+      <c r="D98" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E98" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18">
+      <c r="F98" s="17"/>
+      <c r="G98" s="17">
         <v>3.1</v>
       </c>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" ht="42.75">
+      <c r="A99" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B99" s="21">
         <v>44092</v>
       </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="17" t="s">
+      <c r="C99" s="21"/>
+      <c r="D99" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E99" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18">
+      <c r="F99" s="17"/>
+      <c r="G99" s="17">
         <v>3.1</v>
       </c>
-      <c r="H97" s="18"/>
-    </row>
-    <row r="98" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:8" ht="42.75">
+      <c r="A100" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B100" s="21">
         <v>44089</v>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="17" t="s">
+      <c r="C100" s="21"/>
+      <c r="D100" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E100" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18">
+      <c r="F100" s="17"/>
+      <c r="G100" s="17">
         <v>3.1</v>
       </c>
-      <c r="H98" s="18"/>
-    </row>
-    <row r="99" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" ht="42.75">
+      <c r="A101" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B101" s="21">
         <v>44084</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="17" t="s">
+      <c r="C101" s="21"/>
+      <c r="D101" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E101" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18">
+      <c r="F101" s="17"/>
+      <c r="G101" s="17">
         <v>3.1</v>
       </c>
-      <c r="H99" s="18"/>
-    </row>
-    <row r="100" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8" ht="57">
+      <c r="A102" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B102" s="21">
         <v>44076</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="17" t="s">
+      <c r="C102" s="21"/>
+      <c r="D102" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18">
+      <c r="F102" s="17"/>
+      <c r="G102" s="17">
         <v>3.1</v>
       </c>
-      <c r="H100" s="18"/>
-    </row>
-    <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" ht="28.5">
+      <c r="A103" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="22">
+      <c r="B103" s="21">
         <v>44074</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="17" t="s">
+      <c r="C103" s="21"/>
+      <c r="D103" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E103" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18">
+      <c r="F103" s="17"/>
+      <c r="G103" s="17">
         <v>3.1</v>
       </c>
-      <c r="H101" s="18"/>
-    </row>
-    <row r="102" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8" ht="57">
+      <c r="A104" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B104" s="21">
         <v>44118</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="17" t="s">
+      <c r="C104" s="21"/>
+      <c r="D104" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18">
+      <c r="F104" s="17"/>
+      <c r="G104" s="17">
         <v>3.1</v>
       </c>
-      <c r="H102" s="18"/>
-    </row>
-    <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8" ht="28.5">
+      <c r="A105" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="22">
+      <c r="B105" s="21">
         <v>44057</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="17" t="s">
+      <c r="C105" s="21"/>
+      <c r="D105" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18">
+      <c r="F105" s="17"/>
+      <c r="G105" s="17">
         <v>3.1</v>
       </c>
-      <c r="H103" s="18"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="22">
+      <c r="B106" s="21">
         <v>44054</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="17" t="s">
+      <c r="C106" s="21"/>
+      <c r="D106" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18">
+      <c r="F106" s="17"/>
+      <c r="G106" s="17">
         <v>3.1</v>
       </c>
-      <c r="H104" s="18"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B105" s="22">
+      <c r="B107" s="21">
         <v>43913</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23" t="s">
+      <c r="C107" s="21"/>
+      <c r="D107" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18">
+      <c r="F107" s="17"/>
+      <c r="G107" s="17">
         <v>3.1</v>
       </c>
-      <c r="H105" s="18"/>
-    </row>
-    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8" ht="42.75">
+      <c r="A108" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B108" s="21">
         <v>43908</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="24" t="s">
+      <c r="C108" s="21"/>
+      <c r="D108" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18">
+      <c r="F108" s="17"/>
+      <c r="G108" s="17">
         <v>3.1</v>
       </c>
-      <c r="H106" s="18"/>
-    </row>
-    <row r="107" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:8" ht="65.25" customHeight="1">
+      <c r="A109" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="22">
+      <c r="B109" s="21">
         <v>43906</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="17" t="s">
+      <c r="C109" s="21"/>
+      <c r="D109" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18">
+      <c r="F109" s="17"/>
+      <c r="G109" s="17">
         <v>3.1</v>
       </c>
-      <c r="H107" s="18"/>
-    </row>
-    <row r="108" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A110" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="22">
+      <c r="B110" s="21">
         <v>43873</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="17" t="s">
+      <c r="C110" s="21"/>
+      <c r="D110" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E110" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18">
+      <c r="F110" s="17"/>
+      <c r="G110" s="17">
         <v>3.1</v>
       </c>
-      <c r="H108" s="18"/>
-    </row>
-    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:8" ht="28.5">
+      <c r="A111" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="22">
+      <c r="B111" s="21">
         <v>43872</v>
       </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="17" t="s">
+      <c r="C111" s="21"/>
+      <c r="D111" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E111" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18">
+      <c r="F111" s="17"/>
+      <c r="G111" s="17">
         <v>3.1</v>
       </c>
-      <c r="H109" s="18"/>
-    </row>
-    <row r="110" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A112" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B110" s="22">
+      <c r="B112" s="21">
         <v>43853</v>
       </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="17" t="s">
+      <c r="C112" s="21"/>
+      <c r="D112" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18">
+      <c r="F112" s="17"/>
+      <c r="G112" s="17">
         <v>3.1</v>
       </c>
-      <c r="H110" s="18"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="22">
+      <c r="B113" s="21">
         <v>43837</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="17" t="s">
+      <c r="C113" s="21"/>
+      <c r="D113" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E113" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18">
+      <c r="F113" s="17"/>
+      <c r="G113" s="17">
         <v>3.1</v>
       </c>
-      <c r="H111" s="18"/>
-    </row>
-    <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:8" ht="28.5">
+      <c r="A114" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B112" s="22">
+      <c r="B114" s="21">
         <v>44039</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="17" t="s">
+      <c r="C114" s="21"/>
+      <c r="D114" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E114" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18">
+      <c r="F114" s="17"/>
+      <c r="G114" s="17">
         <v>3.1</v>
       </c>
-      <c r="H112" s="18"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B113" s="22">
+      <c r="B115" s="21">
         <v>44035</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="17" t="s">
+      <c r="C115" s="21"/>
+      <c r="D115" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18">
+      <c r="F115" s="17"/>
+      <c r="G115" s="17">
         <v>3.1</v>
       </c>
-      <c r="H113" s="18"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B114" s="22">
+      <c r="B116" s="21">
         <v>44035</v>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="17" t="s">
+      <c r="C116" s="21"/>
+      <c r="D116" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18">
+      <c r="F116" s="17"/>
+      <c r="G116" s="17">
         <v>3.1</v>
       </c>
-      <c r="H114" s="18"/>
-    </row>
-    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:8" ht="28.5">
+      <c r="A117" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="22">
+      <c r="B117" s="21">
         <v>44015</v>
       </c>
-      <c r="C115" s="22"/>
-      <c r="D115" s="17" t="s">
+      <c r="C117" s="21"/>
+      <c r="D117" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18">
+      <c r="F117" s="17"/>
+      <c r="G117" s="17">
         <v>3.1</v>
       </c>
-      <c r="H115" s="18"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B116" s="22">
+      <c r="B118" s="21">
         <v>44012</v>
       </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="17" t="s">
+      <c r="C118" s="21"/>
+      <c r="D118" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E118" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18">
+      <c r="F118" s="17"/>
+      <c r="G118" s="17">
         <v>3.1</v>
       </c>
-      <c r="H116" s="18"/>
-    </row>
-    <row r="117" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:8" ht="42.75">
+      <c r="A119" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B117" s="22">
+      <c r="B119" s="21">
         <v>44011</v>
       </c>
-      <c r="C117" s="22"/>
-      <c r="D117" s="17" t="s">
+      <c r="C119" s="21"/>
+      <c r="D119" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E119" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18">
+      <c r="F119" s="17"/>
+      <c r="G119" s="17">
         <v>3.1</v>
       </c>
-      <c r="H117" s="18"/>
-    </row>
-    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8" ht="28.5">
+      <c r="A120" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B120" s="21">
         <v>43830</v>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="17" t="s">
+      <c r="C120" s="21"/>
+      <c r="D120" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E120" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18">
+      <c r="F120" s="17"/>
+      <c r="G120" s="17">
         <v>3.1</v>
       </c>
-      <c r="H118" s="18"/>
-    </row>
-    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="1:8" ht="28.5">
+      <c r="A121" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B119" s="22">
+      <c r="B121" s="21">
         <v>43994</v>
       </c>
-      <c r="C119" s="22"/>
-      <c r="D119" s="17" t="s">
+      <c r="C121" s="21"/>
+      <c r="D121" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E121" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18">
+      <c r="F121" s="17"/>
+      <c r="G121" s="17">
         <v>3.1</v>
       </c>
-      <c r="H119" s="18"/>
-    </row>
-    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="1:8" ht="28.5">
+      <c r="A122" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B120" s="22">
+      <c r="B122" s="21">
         <v>43987</v>
       </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="17" t="s">
+      <c r="C122" s="21"/>
+      <c r="D122" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E122" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18">
+      <c r="F122" s="17"/>
+      <c r="G122" s="17">
         <v>3.1</v>
       </c>
-      <c r="H120" s="18"/>
-    </row>
-    <row r="121" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="1:8" ht="42.75">
+      <c r="A123" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B121" s="22">
+      <c r="B123" s="21">
         <v>43986</v>
       </c>
-      <c r="C121" s="22"/>
-      <c r="D121" s="17" t="s">
+      <c r="C123" s="21"/>
+      <c r="D123" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E123" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18">
+      <c r="F123" s="17"/>
+      <c r="G123" s="17">
         <v>3.1</v>
       </c>
-      <c r="H121" s="18"/>
-    </row>
-    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="1:8" ht="28.5">
+      <c r="A124" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B122" s="22">
+      <c r="B124" s="21">
         <v>43983</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="17" t="s">
+      <c r="C124" s="21"/>
+      <c r="D124" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E124" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18">
+      <c r="F124" s="17"/>
+      <c r="G124" s="17">
         <v>3.1</v>
       </c>
-      <c r="H122" s="18"/>
-    </row>
-    <row r="123" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A125" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="22">
+      <c r="B125" s="21">
         <v>43978</v>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="17" t="s">
+      <c r="C125" s="21"/>
+      <c r="D125" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E125" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18">
+      <c r="F125" s="17"/>
+      <c r="G125" s="17">
         <v>3.1</v>
       </c>
-      <c r="H123" s="18"/>
-    </row>
-    <row r="124" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="1:8" ht="142.5">
+      <c r="A126" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B124" s="22">
+      <c r="B126" s="21">
         <v>43978</v>
       </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="17" t="s">
+      <c r="C126" s="21"/>
+      <c r="D126" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E126" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18">
+      <c r="F126" s="17"/>
+      <c r="G126" s="17">
         <v>3.1</v>
       </c>
-      <c r="H124" s="18"/>
-    </row>
-    <row r="125" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:8" ht="42.75">
+      <c r="A127" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="22">
+      <c r="B127" s="21">
         <v>43959</v>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="17" t="s">
+      <c r="C127" s="21"/>
+      <c r="D127" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E127" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18">
+      <c r="F127" s="17"/>
+      <c r="G127" s="17">
         <v>3.1</v>
       </c>
-      <c r="H125" s="18"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B128" s="21">
         <v>43943</v>
       </c>
-      <c r="C126" s="22"/>
-      <c r="D126" s="23" t="s">
+      <c r="C128" s="21"/>
+      <c r="D128" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E128" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18">
+      <c r="F128" s="17"/>
+      <c r="G128" s="17">
         <v>3.1</v>
       </c>
-      <c r="H126" s="18"/>
-    </row>
-    <row r="127" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="1:8" ht="42.75">
+      <c r="A129" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B127" s="22">
+      <c r="B129" s="21">
         <v>43936</v>
       </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="24" t="s">
+      <c r="C129" s="21"/>
+      <c r="D129" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E127" s="18" t="s">
+      <c r="E129" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18">
+      <c r="F129" s="17"/>
+      <c r="G129" s="17">
         <v>3.1</v>
       </c>
-      <c r="H127" s="18"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B128" s="22">
+      <c r="B130" s="21">
         <v>43929</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="23" t="s">
+      <c r="C130" s="21"/>
+      <c r="D130" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E128" s="18" t="s">
+      <c r="E130" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18">
+      <c r="F130" s="17"/>
+      <c r="G130" s="17">
         <v>3.1</v>
       </c>
-      <c r="H128" s="18"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B129" s="22">
+      <c r="B131" s="21">
         <v>43829</v>
       </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="17" t="s">
+      <c r="C131" s="21"/>
+      <c r="D131" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E131" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18">
+      <c r="F131" s="17"/>
+      <c r="G131" s="17">
         <v>3.1</v>
       </c>
-      <c r="H129" s="18"/>
-    </row>
-    <row r="130" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+      <c r="H131" s="17"/>
+    </row>
+    <row r="132" spans="1:8" ht="71.25">
+      <c r="A132" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B132" s="21">
         <v>43826</v>
       </c>
-      <c r="C130" s="22"/>
-      <c r="D130" s="17" t="s">
+      <c r="C132" s="21"/>
+      <c r="D132" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E132" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18">
+      <c r="F132" s="17"/>
+      <c r="G132" s="17">
         <v>3.1</v>
       </c>
-      <c r="H130" s="18"/>
-    </row>
-    <row r="131" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A133" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B131" s="22">
+      <c r="B133" s="21">
         <v>43784</v>
       </c>
-      <c r="C131" s="22"/>
-      <c r="D131" s="24" t="s">
+      <c r="C133" s="21"/>
+      <c r="D133" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E133" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18">
+      <c r="F133" s="17"/>
+      <c r="G133" s="17">
         <v>3.1</v>
       </c>
-      <c r="H131" s="18"/>
-    </row>
-    <row r="132" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+      <c r="H133" s="17"/>
+    </row>
+    <row r="134" spans="1:8" ht="128.25">
+      <c r="A134" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B134" s="21">
         <v>43783</v>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="17" t="s">
+      <c r="C134" s="21"/>
+      <c r="D134" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E134" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18">
+      <c r="F134" s="17"/>
+      <c r="G134" s="17">
         <v>3.1</v>
       </c>
-      <c r="H132" s="18"/>
-    </row>
-    <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="1:8" ht="28.5">
+      <c r="A135" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B135" s="21">
         <v>43768</v>
       </c>
-      <c r="C133" s="22"/>
-      <c r="D133" s="17" t="s">
+      <c r="C135" s="21"/>
+      <c r="D135" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E135" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18">
+      <c r="F135" s="17"/>
+      <c r="G135" s="17">
         <v>3.1</v>
       </c>
-      <c r="H133" s="18"/>
-    </row>
-    <row r="134" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" spans="1:8" ht="85.5">
+      <c r="A136" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B136" s="21">
         <v>43767</v>
       </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="17" t="s">
+      <c r="C136" s="21"/>
+      <c r="D136" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E136" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18">
+      <c r="F136" s="17"/>
+      <c r="G136" s="17">
         <v>3.1</v>
       </c>
-      <c r="H134" s="18"/>
-    </row>
-    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="1:8" ht="28.5">
+      <c r="A137" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B137" s="21">
         <v>43754</v>
       </c>
-      <c r="C135" s="22"/>
-      <c r="D135" s="17" t="s">
+      <c r="C137" s="21"/>
+      <c r="D137" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E137" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18">
+      <c r="F137" s="17"/>
+      <c r="G137" s="17">
         <v>3</v>
       </c>
-      <c r="H135" s="18"/>
-    </row>
-    <row r="136" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" spans="1:8" ht="42.75">
+      <c r="A138" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B138" s="21">
         <v>43741</v>
       </c>
-      <c r="C136" s="22"/>
-      <c r="D136" s="17" t="s">
+      <c r="C138" s="21"/>
+      <c r="D138" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E138" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18">
+      <c r="F138" s="17"/>
+      <c r="G138" s="17">
         <v>3</v>
       </c>
-      <c r="H136" s="18"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B139" s="21">
         <v>43733</v>
       </c>
-      <c r="C137" s="22"/>
-      <c r="D137" s="17" t="s">
+      <c r="C139" s="21"/>
+      <c r="D139" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18">
+      <c r="F139" s="17"/>
+      <c r="G139" s="17">
         <v>3</v>
       </c>
-      <c r="H137" s="18"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="22">
+      <c r="B140" s="21">
         <v>43731</v>
       </c>
-      <c r="C138" s="22"/>
-      <c r="D138" s="17" t="s">
+      <c r="C140" s="21"/>
+      <c r="D140" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18">
+      <c r="F140" s="17"/>
+      <c r="G140" s="17">
         <v>3</v>
       </c>
-      <c r="H138" s="18"/>
-    </row>
-    <row r="139" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="1:8" ht="42.75">
+      <c r="A141" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="22">
+      <c r="B141" s="21">
         <v>43794</v>
       </c>
-      <c r="C139" s="22"/>
-      <c r="D139" s="17" t="s">
+      <c r="C141" s="21"/>
+      <c r="D141" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18">
+      <c r="F141" s="17"/>
+      <c r="G141" s="17">
         <v>3.1</v>
       </c>
-      <c r="H139" s="18"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
+      <c r="H141" s="17"/>
+    </row>
+    <row r="142" spans="1:8" ht="28.5">
+      <c r="A142" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B140" s="22">
+      <c r="B142" s="21">
         <v>43788</v>
       </c>
-      <c r="C140" s="22"/>
-      <c r="D140" s="17" t="s">
+      <c r="C142" s="21"/>
+      <c r="D142" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18">
+      <c r="F142" s="17"/>
+      <c r="G142" s="17">
         <v>3.1</v>
       </c>
-      <c r="H140" s="18"/>
-    </row>
-    <row r="141" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="1:8" ht="42.75">
+      <c r="A143" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="22">
+      <c r="B143" s="21">
         <v>43731</v>
       </c>
-      <c r="C141" s="22"/>
-      <c r="D141" s="17" t="s">
+      <c r="C143" s="21"/>
+      <c r="D143" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E143" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18">
+      <c r="F143" s="17"/>
+      <c r="G143" s="17">
         <v>3</v>
       </c>
-      <c r="H141" s="18"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="22">
+      <c r="B144" s="21">
         <v>43726</v>
       </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="17" t="s">
+      <c r="C144" s="21"/>
+      <c r="D144" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18">
+      <c r="F144" s="17"/>
+      <c r="G144" s="17">
         <v>3</v>
       </c>
-      <c r="H142" s="19"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="25"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
+      <c r="H144" s="18"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="A1:E60">
-    <sortCondition descending="1" ref="A1:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E62">
+    <sortCondition descending="1" ref="A1:A62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8626,7 +8700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8634,7 +8708,7 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
@@ -8642,390 +8716,390 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="3" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A4" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>45266</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>45138</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:3" ht="40.5" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>45133</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:3" ht="33" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>45030</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:3" ht="33" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>45015</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:3" ht="33" customHeight="1">
+      <c r="A9" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>45013</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:3" ht="77.25" customHeight="1">
+      <c r="A10" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="67">
         <v>45013</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="65" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:3" ht="36" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>44987</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="51" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>44986</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>44938</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>44867</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>44854</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:3" ht="36" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>44539</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A17" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>44501</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>44323</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A19" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>44281</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>44154</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>44138</v>
       </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>44112</v>
       </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>44111</v>
       </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>44110</v>
       </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>44110</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>44076</v>
       </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>44073</v>
       </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>44054</v>
       </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>44015</v>
       </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>43987</v>
       </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>43986</v>
       </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>43978</v>
       </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>43959</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>43943</v>
       </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>43895</v>
       </c>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>43830</v>
       </c>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>43783</v>
       </c>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>43731</v>
       </c>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>43726</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="E39" s="34"/>
+      <c r="C39" s="17"/>
+      <c r="E39" s="33"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
     <sortCondition descending="1" ref="B1:B21"/>
   </sortState>
   <mergeCells count="1">
@@ -9038,7 +9112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9046,7 +9120,7 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
@@ -9054,99 +9128,99 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" customHeight="1">
+      <c r="A4" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="67">
         <v>45013</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="65" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>44420</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9156,7 +9230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9164,7 +9238,7 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="2" customWidth="1"/>
@@ -9172,106 +9246,106 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="27.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="A4" s="17">
         <v>8</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>44496</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="A5" s="17">
         <v>7</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>44341</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="A6" s="17">
         <v>6</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>44341</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="7" spans="1:3" ht="51" customHeight="1">
+      <c r="A7" s="17">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>44230</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="A8" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>44230</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="9" spans="1:3">
+      <c r="A9" s="17">
         <v>3.1</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>43768</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:3">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>43726</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C3">
     <sortCondition descending="1" ref="B1:B3"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9280,44 +9354,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="35.25" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>419</v>
       </c>
@@ -9328,7 +9402,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>334</v>
       </c>
@@ -9339,7 +9413,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>120</v>
       </c>
@@ -9350,7 +9424,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>121</v>
       </c>
@@ -9361,7 +9435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>133</v>
       </c>
@@ -9372,7 +9446,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>122</v>
       </c>
@@ -9383,7 +9457,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>123</v>
       </c>
@@ -9394,7 +9468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>124</v>
       </c>
@@ -9405,7 +9479,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -9415,9 +9489,6 @@
       <c r="C12" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9426,44 +9497,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="66.75" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>362</v>
       </c>
@@ -9474,7 +9545,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
@@ -9485,7 +9556,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -9496,7 +9567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
